--- a/Card_List.xlsx
+++ b/Card_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\Plant Battle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skingaby\Downloads\PlantBattle-main\PlantBattle-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F47C7FA-BE0E-4F5D-81EF-F62DEF1DC065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0805D205-6C54-4E9D-87F9-1C52C50A7DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25800" windowHeight="20535" xr2:uid="{44BB7E7F-05B8-4505-9182-79B4547CA1C1}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{44BB7E7F-05B8-4505-9182-79B4547CA1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Card List" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Card List</t>
   </si>
@@ -193,6 +191,9 @@
   </si>
   <si>
     <t>Unblessed (You grew a Flower without using any Blessings)</t>
+  </si>
+  <si>
+    <t>10 x Sun/Water/Soul Wild Card</t>
   </si>
 </sst>
 </file>
@@ -550,20 +551,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761FC540-2422-44F2-9C1A-F4A5056E1A30}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>_xlfn.NUMBERVALUE(LEFT(B2,2))</f>
         <v>1</v>
@@ -572,16 +573,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A38" si="0">_xlfn.NUMBERVALUE(LEFT(B3,2))</f>
+        <f t="shared" ref="A3:A39" si="0">_xlfn.NUMBERVALUE(LEFT(B3,2))</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -590,7 +591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -599,7 +600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -608,7 +609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -617,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -626,7 +627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -635,7 +636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -644,7 +645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -653,261 +654,270 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f>SUM(A2:A38)</f>
-        <v>224</v>
-      </c>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f>SUM(A2:A39)</f>
+        <v>234</v>
+      </c>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -923,12 +933,12 @@
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -936,7 +946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -944,7 +954,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -952,7 +962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -960,7 +970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -968,7 +978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -976,7 +986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -984,7 +994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -992,7 +1002,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1000,7 +1010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1008,7 +1018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1016,7 +1026,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1024,7 +1034,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1034,5 +1044,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>